--- a/agregat/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
+++ b/agregat/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\drsk0211.github.io\agregat\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="616"/>
   </bookViews>
@@ -766,7 +771,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;р.&quot;_-;\-* #,##0\ &quot;р.&quot;_-;_-* &quot;-&quot;\ &quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
@@ -776,7 +781,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1938,6 +1943,309 @@
     <xf numFmtId="170" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2001,314 +2309,11 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -2398,7 +2403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2430,9 +2435,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2464,6 +2470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2639,14 +2646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
@@ -2658,31 +2665,31 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="198" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="79"/>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -2692,46 +2699,46 @@
       <c r="G3" s="80"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="114" t="s">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="123"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="22.5">
-      <c r="A5" s="115"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="119" t="s">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="94"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="160"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="192"/>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="107"/>
       <c r="F6" s="25" t="s">
         <v>221</v>
       </c>
@@ -2740,19 +2747,19 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1">
-      <c r="A7" s="193" t="s">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -2776,7 +2783,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -2800,7 +2807,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -2824,19 +2831,19 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1">
-      <c r="A11" s="196" t="s">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="197"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -2860,7 +2867,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -2884,7 +2891,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -2908,7 +2915,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>4</v>
       </c>
@@ -2932,7 +2939,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>5</v>
       </c>
@@ -2956,7 +2963,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -2980,7 +2987,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>7</v>
       </c>
@@ -3004,7 +3011,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>8</v>
       </c>
@@ -3028,7 +3035,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>9</v>
       </c>
@@ -3052,7 +3059,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>10</v>
       </c>
@@ -3076,7 +3083,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" s="30" customFormat="1" ht="36" customHeight="1">
+    <row r="22" spans="1:8" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="75" t="s">
         <v>42</v>
       </c>
@@ -3088,109 +3095,109 @@
       <c r="G22" s="78"/>
       <c r="H22" s="47"/>
     </row>
-    <row r="23" spans="1:8" s="30" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="186" t="s">
+    <row r="23" spans="1:8" s="30" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
       <c r="H23" s="48"/>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="26.25">
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24" s="35"/>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96">
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="197">
         <v>1500</v>
       </c>
-      <c r="G24" s="97"/>
+      <c r="G24" s="198"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1">
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="38"/>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101">
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="202">
         <v>2500</v>
       </c>
-      <c r="G25" s="102"/>
+      <c r="G25" s="203"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A26" s="103" t="s">
+    <row r="26" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="204" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="205"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A27" s="106" t="s">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="106" t="s">
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="132"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="202" t="s">
+      <c r="E28" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="203"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="114"/>
+      <c r="G28" s="111" t="s">
         <v>233</v>
       </c>
-      <c r="H28" s="201"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A29" s="106"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="204" t="s">
+      <c r="H28" s="112"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="132"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="F29" s="204" t="s">
+      <c r="F29" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="200" t="s">
+      <c r="G29" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="201"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.75" customHeight="1">
+      <c r="H29" s="112"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>1</v>
       </c>
@@ -3214,7 +3221,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="23.25" customHeight="1">
+    <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2</v>
       </c>
@@ -3238,7 +3245,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="21.75" customHeight="1">
+    <row r="32" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>3</v>
       </c>
@@ -3262,7 +3269,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="23.25" customHeight="1">
+    <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>4</v>
       </c>
@@ -3286,7 +3293,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12">
         <v>5</v>
       </c>
@@ -3310,70 +3317,70 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" ht="94.5" customHeight="1" thickBot="1">
-      <c r="A35" s="188" t="s">
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="125" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="189"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="190"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1">
-      <c r="A36" s="183" t="s">
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="185"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="123"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A37" s="114" t="s">
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="120" t="s">
+      <c r="C37" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="123"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="22.5">
-      <c r="A38" s="115"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="119" t="s">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="94"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="157" t="s">
+      <c r="E38" s="106" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="159" t="s">
+      <c r="F38" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="160"/>
+      <c r="G38" s="105"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1">
-      <c r="A39" s="187"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="192"/>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="95"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="107"/>
       <c r="F39" s="25" t="s">
         <v>227</v>
       </c>
@@ -3382,7 +3389,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19">
         <v>1</v>
       </c>
@@ -3395,7 +3402,7 @@
       <c r="D40" s="51">
         <v>90242</v>
       </c>
-      <c r="E40" s="205" t="s">
+      <c r="E40" s="84" t="s">
         <v>240</v>
       </c>
       <c r="F40" s="52">
@@ -3406,7 +3413,7 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17">
         <v>2</v>
       </c>
@@ -3419,7 +3426,7 @@
       <c r="D41" s="54">
         <v>105830</v>
       </c>
-      <c r="E41" s="205" t="s">
+      <c r="E41" s="84" t="s">
         <v>240</v>
       </c>
       <c r="F41" s="55">
@@ -3430,7 +3437,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="17">
         <v>3</v>
       </c>
@@ -3443,7 +3450,7 @@
       <c r="D42" s="54">
         <v>162815</v>
       </c>
-      <c r="E42" s="205" t="s">
+      <c r="E42" s="84" t="s">
         <v>240</v>
       </c>
       <c r="F42" s="55">
@@ -3454,19 +3461,19 @@
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1">
-      <c r="A43" s="183" t="s">
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="121" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="184"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="123"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="57">
         <v>4</v>
       </c>
@@ -3482,7 +3489,7 @@
       <c r="E44" s="54">
         <v>275000</v>
       </c>
-      <c r="F44" s="205" t="s">
+      <c r="F44" s="84" t="s">
         <v>240</v>
       </c>
       <c r="G44" s="55">
@@ -3490,7 +3497,7 @@
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A45" s="57">
         <v>5</v>
       </c>
@@ -3506,7 +3513,7 @@
       <c r="E45" s="54">
         <v>275000</v>
       </c>
-      <c r="F45" s="205" t="s">
+      <c r="F45" s="84" t="s">
         <v>240</v>
       </c>
       <c r="G45" s="55">
@@ -3514,58 +3521,58 @@
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A46" s="193" t="s">
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="194"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="88"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="25.5">
-      <c r="A47" s="169" t="s">
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="109" t="s">
+      <c r="C47" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="111" t="s">
+      <c r="D47" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="112"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="138"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" ht="25.5">
-      <c r="A48" s="170"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="173" t="s">
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="129"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="173" t="s">
+      <c r="E48" s="139" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="175" t="s">
+      <c r="F48" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="176"/>
+      <c r="G48" s="142"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="51.75" thickBot="1">
-      <c r="A49" s="171"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="130"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
       <c r="F49" s="58" t="s">
         <v>49</v>
       </c>
@@ -3574,7 +3581,7 @@
       </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A50" s="60">
         <v>1</v>
       </c>
@@ -3596,7 +3603,7 @@
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A51" s="60">
         <v>2</v>
       </c>
@@ -3616,7 +3623,7 @@
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="52" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A52" s="60">
         <v>3</v>
       </c>
@@ -3636,7 +3643,7 @@
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A53" s="60">
         <v>4</v>
       </c>
@@ -3649,7 +3656,7 @@
       <c r="D53" s="54">
         <v>102000</v>
       </c>
-      <c r="E53" s="206">
+      <c r="E53" s="85">
         <v>62000</v>
       </c>
       <c r="F53" s="55"/>
@@ -3658,7 +3665,7 @@
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="54" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A54" s="60">
         <v>5</v>
       </c>
@@ -3671,7 +3678,7 @@
       <c r="D54" s="54">
         <v>102000</v>
       </c>
-      <c r="E54" s="206">
+      <c r="E54" s="85">
         <v>62000</v>
       </c>
       <c r="F54" s="63"/>
@@ -3680,7 +3687,7 @@
       </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="55" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A55" s="60">
         <v>6</v>
       </c>
@@ -3693,7 +3700,7 @@
       <c r="D55" s="54">
         <v>102000</v>
       </c>
-      <c r="E55" s="206">
+      <c r="E55" s="85">
         <v>62000</v>
       </c>
       <c r="F55" s="63"/>
@@ -3702,7 +3709,7 @@
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="56" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A56" s="60">
         <v>7</v>
       </c>
@@ -3715,7 +3722,7 @@
       <c r="D56" s="61">
         <v>105000</v>
       </c>
-      <c r="E56" s="206">
+      <c r="E56" s="85">
         <v>62000</v>
       </c>
       <c r="F56" s="63"/>
@@ -3724,7 +3731,7 @@
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="57" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A57" s="60">
         <v>8</v>
       </c>
@@ -3737,7 +3744,7 @@
       <c r="D57" s="61">
         <v>103000</v>
       </c>
-      <c r="E57" s="206">
+      <c r="E57" s="85">
         <v>62000</v>
       </c>
       <c r="F57" s="63"/>
@@ -3746,7 +3753,7 @@
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="58" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A58" s="60">
         <v>9</v>
       </c>
@@ -3759,7 +3766,7 @@
       <c r="D58" s="61">
         <v>103000</v>
       </c>
-      <c r="E58" s="206">
+      <c r="E58" s="85">
         <v>62000</v>
       </c>
       <c r="F58" s="63"/>
@@ -3768,7 +3775,7 @@
       </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="59" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A59" s="60">
         <v>10</v>
       </c>
@@ -3788,7 +3795,7 @@
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="60" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A60" s="60">
         <v>11</v>
       </c>
@@ -3808,7 +3815,7 @@
       </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="61" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A61" s="60">
         <v>12</v>
       </c>
@@ -3826,7 +3833,7 @@
       <c r="G61" s="64"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="62" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A62" s="60">
         <v>13</v>
       </c>
@@ -3844,7 +3851,7 @@
       <c r="G62" s="64"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="63" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A63" s="60">
         <v>14</v>
       </c>
@@ -3862,7 +3869,7 @@
       <c r="G63" s="64"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="64" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A64" s="60">
         <v>15</v>
       </c>
@@ -3880,7 +3887,7 @@
       <c r="G64" s="64"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="65" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A65" s="60">
         <v>16</v>
       </c>
@@ -3898,7 +3905,7 @@
       <c r="G65" s="64"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="66" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A66" s="60">
         <v>17</v>
       </c>
@@ -3916,7 +3923,7 @@
       <c r="G66" s="64"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A67" s="60">
         <v>18</v>
       </c>
@@ -3934,68 +3941,68 @@
       <c r="G67" s="64"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" ht="81" customHeight="1" thickBot="1">
-      <c r="A68" s="177" t="s">
+    <row r="68" spans="1:8" s="3" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="178"/>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="179"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="117"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1">
-      <c r="A69" s="135" t="s">
+    <row r="69" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="137"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
+      <c r="G69" s="145"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" ht="25.5">
-      <c r="A70" s="169" t="s">
+    <row r="70" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="107" t="s">
+      <c r="B70" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="109" t="s">
+      <c r="C70" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="111" t="s">
+      <c r="D70" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="112"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="138"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" ht="25.5">
-      <c r="A71" s="170"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="173" t="s">
+    <row r="71" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="129"/>
+      <c r="B71" s="132"/>
+      <c r="C71" s="135"/>
+      <c r="D71" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="173"/>
-      <c r="F71" s="175" t="s">
+      <c r="E71" s="139"/>
+      <c r="F71" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="176"/>
+      <c r="G71" s="142"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" s="3" customFormat="1" ht="117" customHeight="1" thickBot="1">
-      <c r="A72" s="171"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="172"/>
-      <c r="D72" s="174"/>
-      <c r="E72" s="174"/>
+    <row r="72" spans="1:8" s="3" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="130"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
       <c r="F72" s="25" t="s">
         <v>242</v>
       </c>
@@ -4004,7 +4011,7 @@
       </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="73" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
         <v>1</v>
       </c>
@@ -4026,7 +4033,7 @@
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1">
+    <row r="74" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
         <v>2</v>
       </c>
@@ -4048,7 +4055,7 @@
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="75" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
         <v>3</v>
       </c>
@@ -4070,7 +4077,7 @@
       </c>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="76" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
         <v>4</v>
       </c>
@@ -4092,7 +4099,7 @@
       </c>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="77" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
         <v>5</v>
       </c>
@@ -4114,7 +4121,7 @@
       </c>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="78" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A78" s="12">
         <v>6</v>
       </c>
@@ -4136,7 +4143,7 @@
       </c>
       <c r="H78" s="21"/>
     </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="79" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A79" s="12">
         <v>7</v>
       </c>
@@ -4158,7 +4165,7 @@
       </c>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="80" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="12">
         <v>8</v>
       </c>
@@ -4180,7 +4187,7 @@
       </c>
       <c r="H80" s="22"/>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="81" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A81" s="12">
         <v>9</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="82" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A82" s="12">
         <v>10</v>
       </c>
@@ -4222,7 +4229,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A83" s="12">
         <v>11</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A84" s="12">
         <v>12</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A85" s="12">
         <v>13</v>
       </c>
@@ -4285,7 +4292,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A86" s="12">
         <v>14</v>
       </c>
@@ -4306,7 +4313,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="87" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A87" s="12">
         <v>15</v>
       </c>
@@ -4328,7 +4335,7 @@
       </c>
       <c r="H87" s="23"/>
     </row>
-    <row r="88" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="88" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A88" s="12">
         <v>16</v>
       </c>
@@ -4350,7 +4357,7 @@
       </c>
       <c r="H88" s="24"/>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="89" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A89" s="12">
         <v>17</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="90" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A90" s="12">
         <v>18</v>
       </c>
@@ -4392,7 +4399,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="91" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="12">
         <v>19</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="92" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A92" s="12">
         <v>20</v>
       </c>
@@ -4434,7 +4441,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="93" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A93" s="12">
         <v>21</v>
       </c>
@@ -4455,7 +4462,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="94" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A94" s="12">
         <v>22</v>
       </c>
@@ -4476,7 +4483,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="95" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A95" s="12">
         <v>23</v>
       </c>
@@ -4497,7 +4504,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="96" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A96" s="12">
         <v>24</v>
       </c>
@@ -4518,7 +4525,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="97" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A97" s="12">
         <v>25</v>
       </c>
@@ -4539,7 +4546,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="98" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A98" s="12">
         <v>26</v>
       </c>
@@ -4560,7 +4567,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="99" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A99" s="12">
         <v>27</v>
       </c>
@@ -4581,7 +4588,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="100" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="12">
         <v>28</v>
       </c>
@@ -4602,65 +4609,65 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A101" s="180" t="s">
+    <row r="101" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="181"/>
-      <c r="C101" s="181"/>
-      <c r="D101" s="181"/>
-      <c r="E101" s="181"/>
-      <c r="F101" s="181"/>
-      <c r="G101" s="182"/>
-    </row>
-    <row r="102" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1">
-      <c r="A102" s="151" t="s">
+      <c r="B101" s="119"/>
+      <c r="C101" s="119"/>
+      <c r="D101" s="119"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="119"/>
+      <c r="G101" s="120"/>
+    </row>
+    <row r="102" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="152"/>
-      <c r="C102" s="152"/>
-      <c r="D102" s="152"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="152"/>
-      <c r="G102" s="153"/>
-    </row>
-    <row r="103" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A103" s="161" t="s">
+      <c r="B102" s="147"/>
+      <c r="C102" s="147"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="147"/>
+      <c r="G102" s="148"/>
+    </row>
+    <row r="103" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="164" t="s">
+      <c r="B103" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="120" t="s">
+      <c r="C103" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="166" t="s">
+      <c r="D103" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="167"/>
-      <c r="F103" s="167"/>
-      <c r="G103" s="168"/>
+      <c r="E103" s="156"/>
+      <c r="F103" s="156"/>
+      <c r="G103" s="157"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A104" s="162"/>
-      <c r="B104" s="165"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="119" t="s">
+    <row r="104" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="150"/>
+      <c r="B104" s="153"/>
+      <c r="C104" s="100"/>
+      <c r="D104" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="157"/>
-      <c r="F104" s="159" t="s">
+      <c r="E104" s="106"/>
+      <c r="F104" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="G104" s="160"/>
+      <c r="G104" s="105"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1">
-      <c r="A105" s="163"/>
-      <c r="B105" s="156"/>
-      <c r="C105" s="155"/>
-      <c r="D105" s="156"/>
+    <row r="105" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="151"/>
+      <c r="B105" s="154"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="154"/>
       <c r="E105" s="158"/>
       <c r="F105" s="25" t="s">
         <v>242</v>
@@ -4670,7 +4677,7 @@
       </c>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="106" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A106" s="12">
         <v>1</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="107" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A107" s="12">
         <v>2</v>
       </c>
@@ -4712,7 +4719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="108" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A108" s="12">
         <v>3</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="109" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A109" s="12">
         <v>4</v>
       </c>
@@ -4754,7 +4761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="110" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A110" s="12">
         <v>5</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="111" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A111" s="12">
         <v>6</v>
       </c>
@@ -4796,7 +4803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="112" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A112" s="12">
         <v>7</v>
       </c>
@@ -4817,7 +4824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="113" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A113" s="12">
         <v>8</v>
       </c>
@@ -4838,7 +4845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="114" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A114" s="12">
         <v>9</v>
       </c>
@@ -4859,79 +4866,79 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A115" s="149" t="s">
+    <row r="115" spans="1:8" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="150"/>
-      <c r="C115" s="150"/>
-      <c r="D115" s="150"/>
-      <c r="E115" s="150"/>
-      <c r="F115" s="150"/>
-      <c r="G115" s="150"/>
-    </row>
-    <row r="116" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1">
+      <c r="B115" s="160"/>
+      <c r="C115" s="160"/>
+      <c r="D115" s="160"/>
+      <c r="E115" s="160"/>
+      <c r="F115" s="160"/>
+      <c r="G115" s="160"/>
+    </row>
+    <row r="116" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="72"/>
-      <c r="B116" s="130" t="s">
+      <c r="B116" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="131"/>
-      <c r="D116" s="132"/>
-      <c r="E116" s="132"/>
-      <c r="F116" s="133">
+      <c r="C116" s="180"/>
+      <c r="D116" s="181"/>
+      <c r="E116" s="181"/>
+      <c r="F116" s="182">
         <v>1200</v>
       </c>
-      <c r="G116" s="134"/>
+      <c r="G116" s="183"/>
       <c r="H116" s="20"/>
     </row>
-    <row r="117" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1">
-      <c r="A117" s="151" t="s">
+    <row r="117" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A117" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="152"/>
-      <c r="C117" s="152"/>
-      <c r="D117" s="152"/>
-      <c r="E117" s="152"/>
-      <c r="F117" s="152"/>
-      <c r="G117" s="153"/>
-    </row>
-    <row r="118" spans="1:8" s="3" customFormat="1" ht="22.5">
-      <c r="A118" s="114" t="s">
+      <c r="B117" s="147"/>
+      <c r="C117" s="147"/>
+      <c r="D117" s="147"/>
+      <c r="E117" s="147"/>
+      <c r="F117" s="147"/>
+      <c r="G117" s="148"/>
+    </row>
+    <row r="118" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="117" t="s">
+      <c r="B118" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="120" t="s">
+      <c r="C118" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="122" t="s">
+      <c r="D118" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
-      <c r="G118" s="123"/>
+      <c r="E118" s="102"/>
+      <c r="F118" s="102"/>
+      <c r="G118" s="103"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A119" s="115"/>
-      <c r="B119" s="118"/>
-      <c r="C119" s="121"/>
-      <c r="D119" s="119" t="s">
+    <row r="119" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="94"/>
+      <c r="B119" s="97"/>
+      <c r="C119" s="100"/>
+      <c r="D119" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="157" t="s">
+      <c r="E119" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="F119" s="159"/>
-      <c r="G119" s="160"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="105"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1">
-      <c r="A120" s="116"/>
-      <c r="B120" s="154"/>
-      <c r="C120" s="155"/>
-      <c r="D120" s="156"/>
+    <row r="120" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="161"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="154"/>
       <c r="E120" s="158"/>
       <c r="F120" s="32" t="s">
         <v>200</v>
@@ -4939,7 +4946,7 @@
       <c r="G120" s="18"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:8" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="121" spans="1:8" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="33">
         <v>1</v>
       </c>
@@ -4960,7 +4967,7 @@
       </c>
       <c r="G121" s="18"/>
     </row>
-    <row r="122" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="122" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A122" s="33">
         <v>2</v>
       </c>
@@ -4981,7 +4988,7 @@
       </c>
       <c r="G122" s="18"/>
     </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="123" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A123" s="33">
         <v>3</v>
       </c>
@@ -5002,7 +5009,7 @@
       </c>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1">
+    <row r="124" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="33">
         <v>4</v>
       </c>
@@ -5023,62 +5030,62 @@
       </c>
       <c r="G124" s="18"/>
     </row>
-    <row r="125" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1">
-      <c r="A125" s="135" t="s">
+    <row r="125" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="136"/>
-      <c r="C125" s="136"/>
-      <c r="D125" s="136"/>
-      <c r="E125" s="136"/>
-      <c r="F125" s="136"/>
-      <c r="G125" s="137"/>
-    </row>
-    <row r="126" spans="1:8" s="3" customFormat="1" ht="22.5">
-      <c r="A126" s="114" t="s">
+      <c r="B125" s="144"/>
+      <c r="C125" s="144"/>
+      <c r="D125" s="144"/>
+      <c r="E125" s="144"/>
+      <c r="F125" s="144"/>
+      <c r="G125" s="145"/>
+    </row>
+    <row r="126" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="117" t="s">
+      <c r="B126" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="120" t="s">
+      <c r="C126" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="122" t="s">
+      <c r="D126" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="122"/>
-      <c r="F126" s="122"/>
-      <c r="G126" s="123"/>
+      <c r="E126" s="102"/>
+      <c r="F126" s="102"/>
+      <c r="G126" s="103"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1">
-      <c r="A127" s="115"/>
-      <c r="B127" s="118"/>
-      <c r="C127" s="121"/>
-      <c r="D127" s="119" t="s">
+    <row r="127" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="94"/>
+      <c r="B127" s="97"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="128" t="s">
+      <c r="E127" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="129"/>
-      <c r="G127" s="129"/>
+      <c r="F127" s="178"/>
+      <c r="G127" s="178"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A128" s="116"/>
-      <c r="B128" s="119"/>
-      <c r="C128" s="121"/>
-      <c r="D128" s="124"/>
-      <c r="E128" s="125" t="s">
+    <row r="128" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="161"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="173"/>
+      <c r="E128" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="126"/>
-      <c r="G128" s="127"/>
+      <c r="F128" s="175"/>
+      <c r="G128" s="176"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="129" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A129" s="13"/>
       <c r="B129" s="43" t="s">
         <v>115</v>
@@ -5099,7 +5106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="130" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A130" s="13"/>
       <c r="B130" s="43" t="s">
         <v>117</v>
@@ -5120,7 +5127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="131" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A131" s="13"/>
       <c r="B131" s="43" t="s">
         <v>119</v>
@@ -5141,29 +5148,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="29" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A132" s="143" t="s">
+    <row r="132" spans="1:8" s="29" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="167" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="144"/>
-      <c r="C132" s="144"/>
-      <c r="D132" s="144"/>
-      <c r="E132" s="144"/>
-      <c r="F132" s="144"/>
-      <c r="G132" s="145"/>
-    </row>
-    <row r="133" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A133" s="146" t="s">
+      <c r="B132" s="168"/>
+      <c r="C132" s="168"/>
+      <c r="D132" s="168"/>
+      <c r="E132" s="168"/>
+      <c r="F132" s="168"/>
+      <c r="G132" s="169"/>
+    </row>
+    <row r="133" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="147"/>
-      <c r="C133" s="147"/>
-      <c r="D133" s="147"/>
-      <c r="E133" s="147"/>
-      <c r="F133" s="147"/>
-      <c r="G133" s="148"/>
-    </row>
-    <row r="134" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1">
+      <c r="B133" s="171"/>
+      <c r="C133" s="171"/>
+      <c r="D133" s="171"/>
+      <c r="E133" s="171"/>
+      <c r="F133" s="171"/>
+      <c r="G133" s="172"/>
+    </row>
+    <row r="134" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="73"/>
       <c r="B134" s="74"/>
       <c r="C134" s="74"/>
@@ -5172,18 +5179,18 @@
       <c r="F134" s="74"/>
       <c r="G134" s="74"/>
     </row>
-    <row r="135" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A135" s="85" t="s">
+    <row r="135" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="86"/>
-      <c r="C135" s="86"/>
-      <c r="D135" s="86"/>
-      <c r="E135" s="86"/>
-      <c r="F135" s="86"/>
-      <c r="G135" s="86"/>
-    </row>
-    <row r="136" spans="1:8" s="3" customFormat="1" ht="162" customHeight="1">
+      <c r="B135" s="187"/>
+      <c r="C135" s="187"/>
+      <c r="D135" s="187"/>
+      <c r="E135" s="187"/>
+      <c r="F135" s="187"/>
+      <c r="G135" s="187"/>
+    </row>
+    <row r="136" spans="1:8" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="73"/>
       <c r="B136" s="74"/>
       <c r="C136" s="74"/>
@@ -5192,7 +5199,7 @@
       <c r="F136" s="74"/>
       <c r="G136" s="74"/>
     </row>
-    <row r="137" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1">
+    <row r="137" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="73"/>
       <c r="B137" s="74"/>
       <c r="C137" s="74"/>
@@ -5201,68 +5208,68 @@
       <c r="F137" s="74"/>
       <c r="G137" s="74"/>
     </row>
-    <row r="138" spans="1:8" s="3" customFormat="1" ht="35.25">
-      <c r="A138" s="135" t="s">
+    <row r="138" spans="1:8" s="3" customFormat="1" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A138" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="136"/>
-      <c r="C138" s="136"/>
-      <c r="D138" s="136"/>
-      <c r="E138" s="136"/>
-      <c r="F138" s="136"/>
-      <c r="G138" s="137"/>
-    </row>
-    <row r="139" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1">
-      <c r="A139" s="138" t="s">
+      <c r="B138" s="144"/>
+      <c r="C138" s="144"/>
+      <c r="D138" s="144"/>
+      <c r="E138" s="144"/>
+      <c r="F138" s="144"/>
+      <c r="G138" s="145"/>
+    </row>
+    <row r="139" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="139"/>
-      <c r="C139" s="139"/>
-      <c r="D139" s="139"/>
-      <c r="E139" s="139"/>
-      <c r="F139" s="139"/>
-      <c r="G139" s="139"/>
-    </row>
-    <row r="140" spans="1:8" s="3" customFormat="1" ht="22.5">
-      <c r="A140" s="114" t="s">
+      <c r="B139" s="163"/>
+      <c r="C139" s="163"/>
+      <c r="D139" s="163"/>
+      <c r="E139" s="163"/>
+      <c r="F139" s="163"/>
+      <c r="G139" s="163"/>
+    </row>
+    <row r="140" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="117" t="s">
+      <c r="B140" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="120" t="s">
+      <c r="C140" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="122" t="s">
+      <c r="D140" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="122"/>
-      <c r="F140" s="122"/>
-      <c r="G140" s="123"/>
+      <c r="E140" s="102"/>
+      <c r="F140" s="102"/>
+      <c r="G140" s="103"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1" thickBot="1">
-      <c r="A141" s="116"/>
-      <c r="B141" s="119"/>
-      <c r="C141" s="121"/>
+    <row r="141" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="161"/>
+      <c r="B141" s="108"/>
+      <c r="C141" s="100"/>
       <c r="D141" s="27"/>
       <c r="E141" s="26"/>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" spans="1:8" s="3" customFormat="1" ht="33">
-      <c r="A142" s="140" t="s">
+    <row r="142" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="A142" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="141"/>
-      <c r="C142" s="141"/>
-      <c r="D142" s="141"/>
-      <c r="E142" s="141"/>
-      <c r="F142" s="141"/>
-      <c r="G142" s="142"/>
-    </row>
-    <row r="143" spans="1:8" s="3" customFormat="1" ht="27.75">
+      <c r="B142" s="165"/>
+      <c r="C142" s="165"/>
+      <c r="D142" s="165"/>
+      <c r="E142" s="165"/>
+      <c r="F142" s="165"/>
+      <c r="G142" s="166"/>
+    </row>
+    <row r="143" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A143" s="28">
         <v>1</v>
       </c>
@@ -5279,7 +5286,7 @@
       <c r="F143" s="40"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:8" s="3" customFormat="1" ht="27.75">
+    <row r="144" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A144" s="28">
         <v>2</v>
       </c>
@@ -5296,7 +5303,7 @@
       <c r="F144" s="40"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="145" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A145" s="28">
         <v>3</v>
       </c>
@@ -5313,7 +5320,7 @@
       <c r="F145" s="40"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="146" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A146" s="28">
         <v>4</v>
       </c>
@@ -5330,7 +5337,7 @@
       <c r="F146" s="40"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="147" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A147" s="28">
         <v>5</v>
       </c>
@@ -5347,7 +5354,7 @@
       <c r="F147" s="40"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="148" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A148" s="28">
         <v>6</v>
       </c>
@@ -5364,7 +5371,7 @@
       <c r="F148" s="40"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="149" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A149" s="28">
         <v>7</v>
       </c>
@@ -5381,7 +5388,7 @@
       <c r="F149" s="40"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="150" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A150" s="28">
         <v>8</v>
       </c>
@@ -5398,7 +5405,7 @@
       <c r="F150" s="40"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="151" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A151" s="28">
         <v>9</v>
       </c>
@@ -5415,7 +5422,7 @@
       <c r="F151" s="40"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="152" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A152" s="28">
         <v>10</v>
       </c>
@@ -5432,7 +5439,7 @@
       <c r="F152" s="40"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="153" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A153" s="28">
         <v>11</v>
       </c>
@@ -5449,7 +5456,7 @@
       <c r="F153" s="40"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="154" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A154" s="28">
         <v>12</v>
       </c>
@@ -5466,7 +5473,7 @@
       <c r="F154" s="40"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="155" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A155" s="28">
         <v>13</v>
       </c>
@@ -5483,7 +5490,7 @@
       <c r="F155" s="40"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="156" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A156" s="28">
         <v>14</v>
       </c>
@@ -5500,7 +5507,7 @@
       <c r="F156" s="40"/>
       <c r="G156" s="14"/>
     </row>
-    <row r="157" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="157" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A157" s="28">
         <v>15</v>
       </c>
@@ -5517,7 +5524,7 @@
       <c r="F157" s="40"/>
       <c r="G157" s="14"/>
     </row>
-    <row r="158" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="158" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A158" s="28">
         <v>16</v>
       </c>
@@ -5534,7 +5541,7 @@
       <c r="F158" s="40"/>
       <c r="G158" s="14"/>
     </row>
-    <row r="159" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="159" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A159" s="28">
         <v>17</v>
       </c>
@@ -5551,7 +5558,7 @@
       <c r="F159" s="40"/>
       <c r="G159" s="14"/>
     </row>
-    <row r="160" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="160" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A160" s="28">
         <v>18</v>
       </c>
@@ -5568,7 +5575,7 @@
       <c r="F160" s="40"/>
       <c r="G160" s="14"/>
     </row>
-    <row r="161" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="161" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A161" s="28">
         <v>19</v>
       </c>
@@ -5585,7 +5592,7 @@
       <c r="F161" s="40"/>
       <c r="G161" s="14"/>
     </row>
-    <row r="162" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="162" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A162" s="28">
         <v>20</v>
       </c>
@@ -5602,7 +5609,7 @@
       <c r="F162" s="40"/>
       <c r="G162" s="14"/>
     </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="163" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A163" s="28">
         <v>21</v>
       </c>
@@ -5619,7 +5626,7 @@
       <c r="F163" s="40"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="164" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A164" s="28">
         <v>22</v>
       </c>
@@ -5636,7 +5643,7 @@
       <c r="F164" s="40"/>
       <c r="G164" s="14"/>
     </row>
-    <row r="165" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="165" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A165" s="28">
         <v>23</v>
       </c>
@@ -5653,7 +5660,7 @@
       <c r="F165" s="40"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="166" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A166" s="28">
         <v>24</v>
       </c>
@@ -5670,7 +5677,7 @@
       <c r="F166" s="40"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="167" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A167" s="28">
         <v>25</v>
       </c>
@@ -5687,7 +5694,7 @@
       <c r="F167" s="40"/>
       <c r="G167" s="14"/>
     </row>
-    <row r="168" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="168" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A168" s="28">
         <v>26</v>
       </c>
@@ -5704,7 +5711,7 @@
       <c r="F168" s="40"/>
       <c r="G168" s="14"/>
     </row>
-    <row r="169" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="169" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A169" s="28">
         <v>27</v>
       </c>
@@ -5721,7 +5728,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="14"/>
     </row>
-    <row r="170" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="170" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A170" s="28">
         <v>28</v>
       </c>
@@ -5738,7 +5745,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="14"/>
     </row>
-    <row r="171" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="171" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A171" s="28">
         <v>29</v>
       </c>
@@ -5755,7 +5762,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="172" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A172" s="28">
         <v>30</v>
       </c>
@@ -5772,7 +5779,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="14"/>
     </row>
-    <row r="173" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="173" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A173" s="28">
         <v>31</v>
       </c>
@@ -5789,7 +5796,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="14"/>
     </row>
-    <row r="174" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="174" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A174" s="28">
         <v>32</v>
       </c>
@@ -5806,7 +5813,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="14"/>
     </row>
-    <row r="175" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="175" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A175" s="28">
         <v>33</v>
       </c>
@@ -5823,7 +5830,7 @@
       <c r="F175" s="40"/>
       <c r="G175" s="14"/>
     </row>
-    <row r="176" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="176" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A176" s="28">
         <v>34</v>
       </c>
@@ -5840,7 +5847,7 @@
       <c r="F176" s="40"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="177" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A177" s="28">
         <v>35</v>
       </c>
@@ -5857,7 +5864,7 @@
       <c r="F177" s="40"/>
       <c r="G177" s="14"/>
     </row>
-    <row r="178" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="178" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A178" s="28">
         <v>36</v>
       </c>
@@ -5874,7 +5881,7 @@
       <c r="F178" s="40"/>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="179" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A179" s="28">
         <v>37</v>
       </c>
@@ -5891,7 +5898,7 @@
       <c r="F179" s="40"/>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="180" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A180" s="28">
         <v>38</v>
       </c>
@@ -5908,7 +5915,7 @@
       <c r="F180" s="40"/>
       <c r="G180" s="14"/>
     </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" ht="27.75">
+    <row r="181" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A181" s="28">
         <v>39</v>
       </c>
@@ -5925,78 +5932,130 @@
       <c r="F181" s="40"/>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1">
-      <c r="A182" s="83" t="s">
+    <row r="182" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="184" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="84"/>
-      <c r="C182" s="84"/>
-      <c r="D182" s="84"/>
-      <c r="E182" s="84"/>
-      <c r="F182" s="84"/>
-      <c r="G182" s="84"/>
-    </row>
-    <row r="183" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1">
-      <c r="A183" s="83" t="s">
+      <c r="B182" s="185"/>
+      <c r="C182" s="185"/>
+      <c r="D182" s="185"/>
+      <c r="E182" s="185"/>
+      <c r="F182" s="185"/>
+      <c r="G182" s="185"/>
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A183" s="184" t="s">
         <v>206</v>
       </c>
-      <c r="B183" s="84"/>
-      <c r="C183" s="84"/>
-      <c r="D183" s="84"/>
-      <c r="E183" s="84"/>
-      <c r="F183" s="84"/>
-      <c r="G183" s="84"/>
-    </row>
-    <row r="184" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A184" s="87" t="s">
+      <c r="B183" s="185"/>
+      <c r="C183" s="185"/>
+      <c r="D183" s="185"/>
+      <c r="E183" s="185"/>
+      <c r="F183" s="185"/>
+      <c r="G183" s="185"/>
+    </row>
+    <row r="184" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="B184" s="88"/>
-      <c r="C184" s="88"/>
-      <c r="D184" s="88"/>
-      <c r="E184" s="88"/>
-      <c r="F184" s="88"/>
-      <c r="G184" s="89"/>
-    </row>
-    <row r="185" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A185" s="87" t="s">
+      <c r="B184" s="189"/>
+      <c r="C184" s="189"/>
+      <c r="D184" s="189"/>
+      <c r="E184" s="189"/>
+      <c r="F184" s="189"/>
+      <c r="G184" s="190"/>
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="B185" s="88"/>
-      <c r="C185" s="88"/>
-      <c r="D185" s="88"/>
-      <c r="E185" s="88"/>
-      <c r="F185" s="88"/>
-      <c r="G185" s="89"/>
-    </row>
-    <row r="186" spans="1:7" s="3" customFormat="1" ht="30">
-      <c r="A186" s="90" t="s">
+      <c r="B185" s="189"/>
+      <c r="C185" s="189"/>
+      <c r="D185" s="189"/>
+      <c r="E185" s="189"/>
+      <c r="F185" s="189"/>
+      <c r="G185" s="190"/>
+    </row>
+    <row r="186" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A186" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="B186" s="91"/>
-      <c r="C186" s="91"/>
-      <c r="D186" s="91"/>
-      <c r="E186" s="91"/>
-      <c r="F186" s="91"/>
-      <c r="G186" s="92"/>
+      <c r="B186" s="192"/>
+      <c r="C186" s="192"/>
+      <c r="D186" s="192"/>
+      <c r="E186" s="192"/>
+      <c r="F186" s="192"/>
+      <c r="G186" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A182:G182"/>
+    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A69:G69"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A36:G36"/>
@@ -6013,73 +6072,21 @@
     <mergeCell ref="D47:G47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A182:G182"/>
-    <mergeCell ref="A183:G183"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A186:G186"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
